--- a/output/IBIUNA_15799713000134.xlsx
+++ b/output/IBIUNA_15799713000134.xlsx
@@ -1461,10 +1461,10 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.725591008</v>
+        <v>1.726237218</v>
       </c>
       <c r="C98">
-        <v>-0.004218701888275667</v>
+        <v>-0.003982612236246519</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_15799713000134.xlsx
+++ b/output/IBIUNA_15799713000134.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA HEDGE STH FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41243</v>
       </c>
@@ -411,1060 +405,772 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41274</v>
       </c>
       <c r="B3">
         <v>0.04000376599999989</v>
       </c>
-      <c r="C3">
-        <v>0.04000376599999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41305</v>
       </c>
       <c r="B4">
-        <v>0.07320105900000007</v>
-      </c>
-      <c r="C4">
         <v>0.03192035844993302</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41333</v>
       </c>
       <c r="B5">
-        <v>0.05233524500000009</v>
-      </c>
-      <c r="C5">
         <v>-0.01944259542516902</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41364</v>
       </c>
       <c r="B6">
-        <v>0.06465396699999992</v>
-      </c>
-      <c r="C6">
         <v>0.01170608136383366</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41394</v>
       </c>
       <c r="B7">
-        <v>0.07106552500000007</v>
-      </c>
-      <c r="C7">
         <v>0.006022198947951862</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41425</v>
       </c>
       <c r="B8">
-        <v>0.1164115610000001</v>
-      </c>
-      <c r="C8">
         <v>0.04233731264947593</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41455</v>
       </c>
       <c r="B9">
-        <v>0.127317116</v>
-      </c>
-      <c r="C9">
         <v>0.009768400275460776</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41486</v>
       </c>
       <c r="B10">
-        <v>0.1421557610000002</v>
-      </c>
-      <c r="C10">
         <v>0.0131627958002194</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41517</v>
       </c>
       <c r="B11">
-        <v>0.12847773</v>
-      </c>
-      <c r="C11">
         <v>-0.01197562667636909</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41547</v>
       </c>
       <c r="B12">
-        <v>0.07362804600000006</v>
-      </c>
-      <c r="C12">
         <v>-0.0486050212085265</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41578</v>
       </c>
       <c r="B13">
-        <v>0.07340768600000014</v>
-      </c>
-      <c r="C13">
         <v>-0.0002052479914443905</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41608</v>
       </c>
       <c r="B14">
-        <v>0.1061669860000001</v>
-      </c>
-      <c r="C14">
         <v>0.03051897282576377</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41639</v>
       </c>
       <c r="B15">
-        <v>0.1365674749999999</v>
-      </c>
-      <c r="C15">
         <v>0.02748273035152748</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41670</v>
       </c>
       <c r="B16">
-        <v>0.125729352</v>
-      </c>
-      <c r="C16">
         <v>-0.009535837720501261</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41698</v>
       </c>
       <c r="B17">
-        <v>0.131111478</v>
-      </c>
-      <c r="C17">
         <v>0.004781012408033858</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41729</v>
       </c>
       <c r="B18">
-        <v>0.1367154720000001</v>
-      </c>
-      <c r="C18">
         <v>0.00495441352068049</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41759</v>
       </c>
       <c r="B19">
-        <v>0.137492256</v>
-      </c>
-      <c r="C19">
         <v>0.0006833583417609201</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41790</v>
       </c>
       <c r="B20">
-        <v>0.1486930639999999</v>
-      </c>
-      <c r="C20">
         <v>0.009846931212866172</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41820</v>
       </c>
       <c r="B21">
-        <v>0.179428374</v>
-      </c>
-      <c r="C21">
         <v>0.02675676467739163</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41851</v>
       </c>
       <c r="B22">
-        <v>0.197690983</v>
-      </c>
-      <c r="C22">
         <v>0.01548428832355708</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41882</v>
       </c>
       <c r="B23">
-        <v>0.214758996</v>
-      </c>
-      <c r="C23">
         <v>0.01425076521595559</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41912</v>
       </c>
       <c r="B24">
-        <v>0.177935548</v>
-      </c>
-      <c r="C24">
         <v>-0.030313377485784</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41943</v>
       </c>
       <c r="B25">
-        <v>0.1608257070000001</v>
-      </c>
-      <c r="C25">
         <v>-0.01452527774465284</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41973</v>
       </c>
       <c r="B26">
-        <v>0.1786434619999999</v>
-      </c>
-      <c r="C26">
         <v>0.01534920780316584</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42004</v>
       </c>
       <c r="B27">
-        <v>0.192747961</v>
-      </c>
-      <c r="C27">
         <v>0.01196672229960583</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42035</v>
       </c>
       <c r="B28">
-        <v>0.2530716320000002</v>
-      </c>
-      <c r="C28">
         <v>0.0505753713042818</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42063</v>
       </c>
       <c r="B29">
-        <v>0.2872016009999998</v>
-      </c>
-      <c r="C29">
         <v>0.02723704545567407</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42094</v>
       </c>
       <c r="B30">
-        <v>0.3650756150000001</v>
-      </c>
-      <c r="C30">
         <v>0.06049869262087748</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42124</v>
       </c>
       <c r="B31">
-        <v>0.306911044</v>
-      </c>
-      <c r="C31">
         <v>-0.04260904697209766</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42155</v>
       </c>
       <c r="B32">
-        <v>0.329567237</v>
-      </c>
-      <c r="C32">
         <v>0.01733568103507444</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42185</v>
       </c>
       <c r="B33">
-        <v>0.30582814</v>
-      </c>
-      <c r="C33">
         <v>-0.01785475479492427</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42216</v>
       </c>
       <c r="B34">
-        <v>0.3625184989999999</v>
-      </c>
-      <c r="C34">
         <v>0.04341333845049467</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42247</v>
       </c>
       <c r="B35">
-        <v>0.3702759760000001</v>
-      </c>
-      <c r="C35">
         <v>0.005693483799077637</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42277</v>
       </c>
       <c r="B36">
-        <v>0.397355879</v>
-      </c>
-      <c r="C36">
         <v>0.01976237157645389</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42308</v>
       </c>
       <c r="B37">
-        <v>0.3898458759999999</v>
-      </c>
-      <c r="C37">
         <v>-0.005374438332327092</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.410394975</v>
-      </c>
-      <c r="C38">
         <v>0.01478516384790862</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.4117775459999999</v>
-      </c>
-      <c r="C39">
         <v>0.000980272210626687</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.443216431</v>
-      </c>
-      <c r="C40">
         <v>0.02226900766985285</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.4503918150000001</v>
-      </c>
-      <c r="C41">
         <v>0.00497180037995304</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.4287428929999999</v>
-      </c>
-      <c r="C42">
         <v>-0.01492625770230249</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.5031132380000001</v>
-      </c>
-      <c r="C43">
         <v>0.0520529938342098</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>0.4799485730000002</v>
-      </c>
-      <c r="C44">
         <v>-0.01541112433473224</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>0.547804519</v>
-      </c>
-      <c r="C45">
         <v>0.04585020536385898</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>0.5864878360000001</v>
-      </c>
-      <c r="C46">
         <v>0.02499237889872075</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>0.6042514130000001</v>
-      </c>
-      <c r="C47">
         <v>0.01119679369542914</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>0.6402363790000001</v>
-      </c>
-      <c r="C48">
         <v>0.02243100159264122</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>0.659796</v>
-      </c>
-      <c r="C49">
         <v>0.01192487939569098</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.5718920890000001</v>
-      </c>
-      <c r="C50">
         <v>-0.0529606716729043</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.615995775</v>
-      </c>
-      <c r="C51">
         <v>0.02805770593836221</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>0.6547043379999999</v>
-      </c>
-      <c r="C52">
         <v>0.02395338131375979</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>0.7178248949999999</v>
-      </c>
-      <c r="C53">
         <v>0.03814612408419271</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>0.7567115799999999</v>
-      </c>
-      <c r="C54">
         <v>0.02263716465699495</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>0.7662113260000001</v>
-      </c>
-      <c r="C55">
         <v>0.005407686787150423</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>0.706316986</v>
-      </c>
-      <c r="C56">
         <v>-0.03391119687565636</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>0.7597910110000001</v>
-      </c>
-      <c r="C57">
         <v>0.03133885757379429</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>0.8530012279999999</v>
-      </c>
-      <c r="C58">
         <v>0.05296664002564322</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>0.8738280459999999</v>
-      </c>
-      <c r="C59">
         <v>0.01123950577327948</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>0.938561752</v>
-      </c>
-      <c r="C60">
         <v>0.03454623605308127</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>0.9141481759999999</v>
-      </c>
-      <c r="C61">
         <v>-0.01259365401943624</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>0.915875014</v>
-      </c>
-      <c r="C62">
         <v>0.0009021443698307152</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>0.963055851</v>
-      </c>
-      <c r="C63">
         <v>0.02462626040594107</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.06711743</v>
-      </c>
-      <c r="C64">
         <v>0.0530099940595119</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.103608691</v>
-      </c>
-      <c r="C65">
         <v>0.01765321140947451</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.138190013</v>
-      </c>
-      <c r="C66">
         <v>0.0164390469329927</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.124221862</v>
-      </c>
-      <c r="C67">
         <v>-0.006532698644682977</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.039635747</v>
-      </c>
-      <c r="C68">
         <v>-0.03981981191002359</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.077762194</v>
-      </c>
-      <c r="C69">
         <v>0.01869277249924561</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.076866127</v>
-      </c>
-      <c r="C70">
         <v>-0.0004312654270962613</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.048526936</v>
-      </c>
-      <c r="C71">
         <v>-0.01364516982177166</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.058000533</v>
-      </c>
-      <c r="C72">
         <v>0.004624589910688925</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.080611407</v>
-      </c>
-      <c r="C73">
         <v>0.01098681639651455</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.055969386</v>
-      </c>
-      <c r="C74">
         <v>-0.01184364409283489</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.08245593</v>
-      </c>
-      <c r="C75">
         <v>0.01288275213646606</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.161267901</v>
-      </c>
-      <c r="C76">
         <v>0.03784568492645124</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.140625014</v>
-      </c>
-      <c r="C77">
         <v>-0.00955128560899321</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.127592859</v>
-      </c>
-      <c r="C78">
         <v>-0.006088013974781981</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.132703744</v>
-      </c>
-      <c r="C79">
         <v>0.002402191273758181</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.149407336</v>
-      </c>
-      <c r="C80">
         <v>0.007832120165303103</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.249887555</v>
-      </c>
-      <c r="C81">
         <v>0.04674787199107255</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.293412799</v>
-      </c>
-      <c r="C82">
         <v>0.01934551969198295</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.316779912</v>
-      </c>
-      <c r="C83">
         <v>0.01018879506131154</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.337786587</v>
-      </c>
-      <c r="C84">
         <v>0.009067186266245697</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.383521447</v>
-      </c>
-      <c r="C85">
         <v>0.01956331696585267</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.345881472</v>
-      </c>
-      <c r="C86">
         <v>-0.01579175007943612</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.41979197</v>
-      </c>
-      <c r="C87">
         <v>0.03150649292480523</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.424233636</v>
-      </c>
-      <c r="C88">
         <v>0.001835556963188045</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.475897334</v>
-      </c>
-      <c r="C89">
         <v>0.02131135268185025</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.556572412</v>
-      </c>
-      <c r="C90">
         <v>0.03258417741807706</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.628346868</v>
-      </c>
-      <c r="C91">
         <v>0.02807448584796823</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.644882007</v>
-      </c>
-      <c r="C92">
         <v>0.006291079461890892</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.669670316</v>
-      </c>
-      <c r="C93">
         <v>0.009372179528007063</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.744328925</v>
-      </c>
-      <c r="C94">
         <v>0.027965478940434</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.764038575</v>
-      </c>
-      <c r="C95">
         <v>0.007181956149808322</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.733110696</v>
-      </c>
-      <c r="C96">
         <v>-0.01118938037975847</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.737138178</v>
-      </c>
-      <c r="C97">
         <v>0.001473589052172208</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.726237218</v>
-      </c>
-      <c r="C98">
-        <v>-0.003982612236246519</v>
+        <v>-0.006780009189583769</v>
       </c>
     </row>
   </sheetData>
